--- a/Excel Report Barang.xlsx
+++ b/Excel Report Barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polmanastraacid-my.sharepoint.com/personal/0320200016_polman_astra_ac_id/Documents/Semester 2/Pemrograman 2/Dosen Industri/QuizMahasiswa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D889B5EB-3BEA-4E70-BA83-6FB1FEAD8DC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66C8DE6B-A0D6-4116-8C79-070823AAC182}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{C6CEFED4-46D1-45F1-B7AD-52220A32E403}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{AAFD6DAE-F662-4BB2-82DF-9F8C6FFC1366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>id_barang</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>MacBook Pro M1 512GB</t>
+  </si>
+  <si>
+    <t>MacBook Air M1 256GB</t>
+  </si>
+  <si>
+    <t>MacBook Air 512GB</t>
+  </si>
+  <si>
+    <t>MacBook Air M1 1TB</t>
+  </si>
+  <si>
+    <t>iMac 1TB</t>
+  </si>
+  <si>
+    <t>iMac Pro 512GB</t>
+  </si>
+  <si>
+    <t>PowerBank ACMIC</t>
   </si>
 </sst>
 </file>
@@ -423,8 +441,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751B7E97-360D-4DE4-97B6-D2AF026DFBF2}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97585619-B69F-439E-91BA-289BDD811C7E}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,6 +635,108 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>16000000</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>18000000</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>30000000</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>35000000</v>
+      </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>25000000</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>500000</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel Report Barang.xlsx
+++ b/Excel Report Barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polmanastraacid-my.sharepoint.com/personal/0320200016_polman_astra_ac_id/Documents/Semester 2/Pemrograman 2/Dosen Industri/QuizMahasiswa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66C8DE6B-A0D6-4116-8C79-070823AAC182}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A40A743-3192-4AC3-AE5E-762F60EF9E06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{AAFD6DAE-F662-4BB2-82DF-9F8C6FFC1366}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{B0694F5F-CDAB-4173-A42A-86334EB7C59F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>id_barang</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>PowerBank ACMIC</t>
+  </si>
+  <si>
+    <t>PowerBank Xiaomi</t>
   </si>
 </sst>
 </file>
@@ -441,8 +444,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97585619-B69F-439E-91BA-289BDD811C7E}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABD9572-C76C-46D4-AF8E-705B026B155A}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,6 +740,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>600000</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
